--- a/out/descriptive_statistics.xlsx
+++ b/out/descriptive_statistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>child_mort</t>
   </si>
@@ -43,9 +43,6 @@
     <t>gdpp</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
@@ -53,15 +50,6 @@
   </si>
   <si>
     <t>min</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>75%</t>
   </si>
   <si>
     <t>max</t>
@@ -422,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +450,31 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>167</v>
+        <v>38.27</v>
       </c>
       <c r="C2">
-        <v>167</v>
+        <v>41.11</v>
       </c>
       <c r="D2">
-        <v>167</v>
+        <v>6.82</v>
       </c>
       <c r="E2">
-        <v>167</v>
+        <v>46.89</v>
       </c>
       <c r="F2">
-        <v>167</v>
+        <v>17144.69</v>
       </c>
       <c r="G2">
-        <v>167</v>
+        <v>7.78</v>
       </c>
       <c r="H2">
-        <v>167</v>
+        <v>70.56</v>
       </c>
       <c r="I2">
-        <v>167</v>
+        <v>2.95</v>
       </c>
       <c r="J2">
-        <v>167</v>
+        <v>12964.16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -494,31 +482,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>38.27</v>
+        <v>40.33</v>
       </c>
       <c r="C3">
-        <v>41.11</v>
+        <v>27.41</v>
       </c>
       <c r="D3">
-        <v>6.82</v>
+        <v>2.75</v>
       </c>
       <c r="E3">
-        <v>46.89</v>
+        <v>24.21</v>
       </c>
       <c r="F3">
-        <v>17144.69</v>
+        <v>19278.07</v>
       </c>
       <c r="G3">
-        <v>7.78</v>
+        <v>10.57</v>
       </c>
       <c r="H3">
-        <v>70.56</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I3">
-        <v>2.95</v>
+        <v>1.51</v>
       </c>
       <c r="J3">
-        <v>12964.16</v>
+        <v>18328.7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -526,31 +514,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>40.33</v>
+        <v>2.6</v>
       </c>
       <c r="C4">
-        <v>27.41</v>
+        <v>0.11</v>
       </c>
       <c r="D4">
-        <v>2.75</v>
+        <v>1.81</v>
       </c>
       <c r="E4">
-        <v>24.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F4">
-        <v>19278.07</v>
+        <v>609</v>
       </c>
       <c r="G4">
-        <v>10.57</v>
+        <v>-4.21</v>
       </c>
       <c r="H4">
-        <v>8.890000000000001</v>
+        <v>32.1</v>
       </c>
       <c r="I4">
-        <v>1.51</v>
+        <v>1.15</v>
       </c>
       <c r="J4">
-        <v>18328.7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -558,158 +546,30 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2.6</v>
+        <v>208</v>
       </c>
       <c r="C5">
-        <v>0.11</v>
+        <v>200</v>
       </c>
       <c r="D5">
-        <v>1.81</v>
+        <v>17.9</v>
       </c>
       <c r="E5">
-        <v>0.07000000000000001</v>
+        <v>174</v>
       </c>
       <c r="F5">
-        <v>609</v>
+        <v>125000</v>
       </c>
       <c r="G5">
-        <v>-4.21</v>
+        <v>104</v>
       </c>
       <c r="H5">
-        <v>32.1</v>
+        <v>82.8</v>
       </c>
       <c r="I5">
-        <v>1.15</v>
+        <v>7.49</v>
       </c>
       <c r="J5">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>8.25</v>
-      </c>
-      <c r="C6">
-        <v>23.8</v>
-      </c>
-      <c r="D6">
-        <v>4.92</v>
-      </c>
-      <c r="E6">
-        <v>30.2</v>
-      </c>
-      <c r="F6">
-        <v>3355</v>
-      </c>
-      <c r="G6">
-        <v>1.81</v>
-      </c>
-      <c r="H6">
-        <v>65.3</v>
-      </c>
-      <c r="I6">
-        <v>1.8</v>
-      </c>
-      <c r="J6">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>19.3</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-      <c r="D7">
-        <v>6.32</v>
-      </c>
-      <c r="E7">
-        <v>43.3</v>
-      </c>
-      <c r="F7">
-        <v>9960</v>
-      </c>
-      <c r="G7">
-        <v>5.39</v>
-      </c>
-      <c r="H7">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="I7">
-        <v>2.41</v>
-      </c>
-      <c r="J7">
-        <v>4660</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>62.1</v>
-      </c>
-      <c r="C8">
-        <v>51.35</v>
-      </c>
-      <c r="D8">
-        <v>8.6</v>
-      </c>
-      <c r="E8">
-        <v>58.75</v>
-      </c>
-      <c r="F8">
-        <v>22800</v>
-      </c>
-      <c r="G8">
-        <v>10.75</v>
-      </c>
-      <c r="H8">
-        <v>76.8</v>
-      </c>
-      <c r="I8">
-        <v>3.88</v>
-      </c>
-      <c r="J8">
-        <v>14050</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>208</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-      <c r="D9">
-        <v>17.9</v>
-      </c>
-      <c r="E9">
-        <v>174</v>
-      </c>
-      <c r="F9">
-        <v>125000</v>
-      </c>
-      <c r="G9">
-        <v>104</v>
-      </c>
-      <c r="H9">
-        <v>82.8</v>
-      </c>
-      <c r="I9">
-        <v>7.49</v>
-      </c>
-      <c r="J9">
         <v>105000</v>
       </c>
     </row>
